--- a/Test Data/Verify DC Units Calculation on changing Device Sensitivity for Sounders and Beacons.xlsx
+++ b/Test Data/Verify DC Units Calculation on changing Device Sensitivity for Sounders and Beacons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203623B3-4259-45E4-9EFB-6AC4EC3A84BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA117FA5-88DA-407F-A7A5-2A044FBC8435}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Device</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>NGC -1196</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -265,11 +277,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -300,10 +338,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -589,7 +640,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,19 +660,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -630,16 +687,19 @@
       <c r="B2" s="9">
         <v>368.4</v>
       </c>
+      <c r="C2" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="D2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -852,9 +912,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
